--- a/Datos/Anuario2024/130201_CiudadArtesCiencias.xlsx
+++ b/Datos/Anuario2024/130201_CiudadArtesCiencias.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="0" sheetId="118" r:id="rId1"/>
+    <sheet name="1" sheetId="81" r:id="rId2"/>
+    <sheet name="2" sheetId="117" r:id="rId3"/>
+    <sheet name="3" sheetId="108" r:id="rId4"/>
+    <sheet name="4" sheetId="111" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -18,178 +24,318 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_1">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
     <definedName name="_R2_4">'[1]4.5'!$A$1:$H$6</definedName>
     <definedName name="_R2_5">'[1]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R3_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_1">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_4">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_5">#REF!</definedName>
+    <definedName name="_R3_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_6">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
+    <definedName name="_R3_8" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_8">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
     <definedName name="_R5_2">'[2]7.3d'!$A$1:$H$270</definedName>
+    <definedName name="_R5_8" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
     <definedName name="_R6_1">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
     <definedName name="_R6_3">'[3]11.2'!$A$1:$F$17</definedName>
     <definedName name="_R7_1">#REF!</definedName>
+    <definedName name="_R8_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
-    <definedName name="_R1_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R8_1" localSheetId="2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+  <si>
+    <t>Fuente: Ciutat de les Arts i de les Ciències.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Invitación</t>
+  </si>
+  <si>
+    <t>Extranjero</t>
+  </si>
+  <si>
+    <t>Personas Adultas</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Escolar</t>
+  </si>
+  <si>
+    <t>Reducida</t>
+  </si>
+  <si>
+    <t>Grupos</t>
+  </si>
+  <si>
+    <t>Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>Resto del Estado</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Museo de las Ciencias Príncipe Felipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enero </t>
+  </si>
+  <si>
+    <t>l'Hemisfèric (*)</t>
+  </si>
+  <si>
+    <t>l'Oceanogràfic</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Nota: (*) espectadores.</t>
+  </si>
+  <si>
+    <t>Gratuita</t>
+  </si>
+  <si>
+    <t>Origen desconocido</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">l'Hemisfèric </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Museo de las Ciencias
+ Príncipe Felipe</t>
+  </si>
+  <si>
+    <t>l'Hemisfèric</t>
+  </si>
+  <si>
+    <t>Grupos reducida</t>
+  </si>
+  <si>
+    <t>CIUDAD DE LAS ARTES Y DE LAS CIENCIAS</t>
+  </si>
+  <si>
+    <t>Museo de las Ciencias
+ Príncipe Felipe</t>
+  </si>
+  <si>
+    <t>Museo de las Ciencias Príncipe Felipe</t>
+  </si>
+  <si>
+    <t>1. Número de entradas a la Ciudad de las Artes y de las Ciencias. 2014-2023</t>
+  </si>
+  <si>
+    <t>3. Número de entradas a la Ciudad de las Artes y de las Ciencias según procedencia. 2023</t>
+  </si>
+  <si>
+    <t>4. Número de entradas a la Ciudad de las Artes y de las Ciencias según tipo de tarifa. 2023</t>
+  </si>
+  <si>
+    <t>2. Número de entradas a la Ciudad de las Artes y las Ciencias según mes. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
-      <vertAlign val="superscript"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -218,63 +364,63 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -285,6 +431,7 @@
     <cellStyle name="Normal 4" xfId="3"/>
     <cellStyle name="Porcentaje" xfId="4" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -353,13 +500,31 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE397"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFBE3B"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFBF61"/>
+      <color rgb="FFFFD88B"/>
+      <color rgb="FFFFE4AF"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -600,8 +765,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.3d"/>
       <sheetName val="7.3b"/>
@@ -5102,8 +5267,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -5803,969 +5968,826 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="48.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="inlineStr">
-        <is>
-          <t>CIUDAD DE LAS ARTES Y DE LAS CIENCIAS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="9.85546875" customWidth="1" min="1" max="1"/>
-    <col width="14.7109375" customWidth="1" min="2" max="3"/>
-    <col width="19.7109375" customWidth="1" min="4" max="4"/>
-    <col width="14.7109375" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="inlineStr">
-        <is>
-          <t>1. Número de entradas a la Ciudad de las Artes y de las Ciencias. 2014-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>l'Hemisfèric (*)</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Museo de las Ciencias Príncipe Felipe</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
-        <is>
-          <t>l'Oceanogràfic</t>
-        </is>
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="29" t="n">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
         <v>2014</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>1735514</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>289554</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6">
         <v>442994</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>1002966</v>
       </c>
-      <c r="F4" s="1" t="n"/>
+      <c r="F4" s="1"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="n">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
         <v>2015</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="9">
         <v>1960076</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="9">
         <v>307959</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="9">
         <v>560400</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="9">
         <v>1091717</v>
       </c>
-      <c r="F5" s="1" t="n"/>
+      <c r="F5" s="1"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="29" t="n">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
         <v>2016</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="6">
         <v>2149227</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>329945</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="6">
         <v>598223</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>1221059</v>
       </c>
-      <c r="F6" s="1" t="n"/>
+      <c r="F6" s="1"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="30" t="n">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30">
         <v>2017</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="9">
         <v>2429968</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="9">
         <v>354624</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="9">
         <v>681555</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="9">
         <v>1393789</v>
       </c>
-      <c r="F7" s="1" t="n"/>
+      <c r="F7" s="1"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="29" t="n">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
         <v>2018</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="6">
         <v>2616067</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>360900</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="6">
         <v>777027</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="6">
         <v>1478140</v>
       </c>
-      <c r="F8" s="1" t="n"/>
+      <c r="F8" s="1"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="30" t="n">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30">
         <v>2019</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="9">
         <v>2876524</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="9">
         <v>397358</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>891645</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="9">
         <v>1587521</v>
       </c>
-      <c r="F9" s="1" t="n"/>
+      <c r="F9" s="1"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="29" t="n">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
         <v>2020</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="6">
         <v>801594</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>106833</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="6">
         <v>254299</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>440462</v>
       </c>
-      <c r="F10" s="1" t="n"/>
+      <c r="F10" s="1"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="30" t="n">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30">
         <v>2021</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="9">
         <v>1494849</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="9">
         <v>204634</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>427982</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="9">
         <v>862233</v>
       </c>
-      <c r="F11" s="1" t="n"/>
+      <c r="F11" s="1"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="29" t="n">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
         <v>2022</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="6">
         <v>2770458</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>360395</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6">
         <v>821718</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="6">
         <v>1588345</v>
       </c>
-      <c r="F12" s="1" t="n"/>
+      <c r="F12" s="1"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="30" t="n">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30">
         <v>2023</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="9">
         <v>3367993</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="9">
         <v>406032</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="9">
         <v>1079521</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="9">
         <v>1882440</v>
       </c>
-      <c r="F13" s="1" t="n"/>
+      <c r="F13" s="1"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>Nota: (*) espectadores.</t>
-        </is>
-      </c>
-      <c r="C14" s="13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="13" t="n"/>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
-    <row r="15">
-      <c r="A15" s="13" t="inlineStr">
-        <is>
-          <t>Fuente: Ciutat de les Arts i de les Ciències.</t>
-        </is>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="E18" s="1" t="n"/>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
     </row>
-    <row r="19">
-      <c r="C19" s="4" t="n"/>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="4"/>
     </row>
-    <row r="20">
-      <c r="C20" s="6" t="n"/>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="6"/>
     </row>
-    <row r="21">
-      <c r="C21" s="6" t="n"/>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="13.7109375" customWidth="1" min="1" max="1"/>
-    <col width="14.7109375" customWidth="1" min="2" max="2"/>
-    <col width="19.7109375" customWidth="1" min="3" max="3"/>
-    <col width="14.7109375" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="inlineStr">
-        <is>
-          <t>2. Número de entradas a la Ciudad de las Artes y las Ciencias según mes. 2023</t>
-        </is>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="20" t="n"/>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
     </row>
-    <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>l'Hemisfèric (*)</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Museo de las Ciencias
- Príncipe Felipe</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>l'Oceanogràfic</t>
-        </is>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="18" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="17" t="n">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="17">
         <v>406032</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="17">
         <v>1079521</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="17">
         <v>1882440</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enero </t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7">
         <v>21198</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="7">
         <v>50072</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="7">
         <v>86613</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="28" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
         <v>27236</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>61585</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>102065</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="27" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
         <v>24035</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>60736</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>108848</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="28" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
         <v>43207</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>108377</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>199833</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="27" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
         <v>31567</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>81780</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>157171</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="28" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <v>37353</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>89333</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>173843</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="27" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
         <v>43302</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7">
         <v>112378</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>220755</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="28" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="n">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
         <v>57734</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>148194</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>289020</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="27" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
         <v>31330</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="7">
         <v>83500</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="7">
         <v>157409</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="28" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
         <v>33728</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>107831</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="4">
         <v>160247</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="27" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
         <v>24110</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="7">
         <v>80072</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="7">
         <v>104058</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="28" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="n">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
         <v>31232</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>95663</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="4">
         <v>122578</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="13" t="inlineStr">
-        <is>
-          <t>Nota: (*) espectadores.</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>Fuente: Ciutat de les Arts i de les Ciències.</t>
-        </is>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="19.7109375" customWidth="1" min="1" max="1"/>
-    <col width="14.7109375" customWidth="1" min="2" max="2"/>
-    <col width="19.7109375" customWidth="1" min="3" max="3"/>
-    <col width="14.7109375" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="inlineStr">
-        <is>
-          <t>3. Número de entradas a la Ciudad de las Artes y de las Ciencias según procedencia. 2023</t>
-        </is>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="19" t="n"/>
-      <c r="C2" s="19" t="n"/>
-      <c r="D2" s="19" t="n"/>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
-    <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>l'Hemisfèric</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>Museo de las Ciencias
- Príncipe Felipe</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>l'Oceanogràfic</t>
-        </is>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-      <c r="B4" s="16" t="n">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="16">
         <v>0.2</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="16">
         <v>0.19</v>
       </c>
-      <c r="D4" s="16" t="n">
-        <v>0.14</v>
+      <c r="D4" s="16">
+        <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Resto del Estado</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15">
         <v>0.37</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="15">
         <v>0.34</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="15">
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Extranjero</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16">
         <v>0.38</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="16">
         <v>0.39</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="16">
         <v>0.43</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Origen desconocido</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="15">
         <v>0.05</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="15">
         <v>0.08</v>
       </c>
-      <c r="D7" s="15" t="n">
+      <c r="D7" s="15">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="13" t="inlineStr">
-        <is>
-          <t>Fuente: Ciutat de les Arts i de les Ciències.</t>
-        </is>
-      </c>
-      <c r="B8" s="19" t="n"/>
-      <c r="C8" s="19" t="n"/>
-      <c r="D8" s="19" t="n"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja7">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="16.7109375" customWidth="1" min="1" max="1"/>
-    <col width="14.7109375" customWidth="1" min="2" max="2"/>
-    <col width="19.5703125" customWidth="1" min="3" max="3"/>
-    <col width="14.7109375" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="inlineStr">
-        <is>
-          <t>4. Número de entradas a la Ciudad de las Artes y de las Ciencias según tipo de tarifa. 2023</t>
-        </is>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
     </row>
-    <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>l'Hemisfèric</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>Museo de las Ciencias Príncipe Felipe</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>l'Oceanogràfic</t>
-        </is>
+    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Personas Adultas</t>
-        </is>
-      </c>
-      <c r="B4" s="16" t="n">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16">
         <v>0.62</v>
       </c>
-      <c r="C4" s="16" t="n">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="D4" s="16" t="n">
+      <c r="C4" s="16">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D4" s="16">
         <v>0.7</v>
       </c>
-      <c r="E4" s="19" t="n"/>
+      <c r="E4" s="19"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Reducida</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="n">
-        <v>0.1672</v>
-      </c>
-      <c r="C5" s="15" t="n">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.16719999999999999</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.17</v>
       </c>
-      <c r="D5" s="15" t="n">
-        <v>0.1826</v>
+      <c r="D5" s="15">
+        <v>0.18260000000000001</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Grupos</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="16">
         <v>0.02</v>
       </c>
-      <c r="C6" s="16" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="D6" s="16" t="n">
+      <c r="C6" s="16">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D6" s="16">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Grupos reducida</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="C7" s="15" t="n">
-        <v>0.0155</v>
-      </c>
-      <c r="D7" s="15" t="n">
-        <v>0.0161</v>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="15">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1.55E-2</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1.61E-2</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Escolar</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
-        <v>0.1626</v>
-      </c>
-      <c r="C8" s="16" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>0.07000000000000001</v>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="C8" s="16">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Gratuita</t>
-        </is>
-      </c>
-      <c r="B9" s="15" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="C9" s="15" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="D9" s="15" t="n">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2.41E-2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D9" s="15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Invitación</t>
-        </is>
-      </c>
-      <c r="B10" s="16" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C10" s="16" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="E10" s="22" t="n"/>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E10" s="22"/>
     </row>
-    <row r="11">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Fuente: Ciutat de les Arts i de les Ciències.</t>
-        </is>
-      </c>
-      <c r="F11" s="14" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="J11" s="14" t="n"/>
-      <c r="K11" s="21" t="n"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="21"/>
     </row>
-    <row r="12">
-      <c r="D12" s="23" t="n"/>
-      <c r="E12" s="23" t="n"/>
-      <c r="F12" s="23" t="n"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
-    <row r="13">
-      <c r="D13" s="23" t="n"/>
-      <c r="E13" s="24" t="n"/>
-      <c r="F13" s="23" t="n"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="23"/>
     </row>
-    <row r="14">
-      <c r="D14" s="23" t="n"/>
-      <c r="E14" s="23" t="n"/>
-      <c r="F14" s="23" t="n"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
-    <row r="15">
-      <c r="D15" s="23" t="n"/>
-      <c r="E15" s="23" t="n"/>
-      <c r="F15" s="23" t="n"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
-    <row r="16">
-      <c r="D16" s="23" t="n"/>
-      <c r="E16" s="23" t="n"/>
-      <c r="F16" s="23" t="n"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
-    <row r="17">
-      <c r="C17" s="26" t="n"/>
-      <c r="D17" s="23" t="n"/>
-      <c r="E17" s="23" t="n"/>
-      <c r="F17" s="23" t="n"/>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="26"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>